--- a/tradept/Excel/Localization/Main/english/Z阵营势力表_Camps_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/Z阵营势力表_Camps_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E37BB74-E3E1-4F42-BB91-69BA69CE1098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A773136-1FD2-4396-A377-06B4218D6FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>首领</t>
   </si>
   <si>
-    <t>Sultan</t>
-  </si>
-  <si>
     <t>野马本是除雄鹰以外最强大的部落，他们的家乡在南部的大草原，在旧王朝要沦陷时，野马首领率领他的草原骑兵本来要支援骆驼城，但是还没赶到就听闻骆驼城沦陷了，野马首领索性自立为王，自称野马王，接管了骆驼城东边的西多喀那沙漠，宣称要夺回骆驼城恢复玉之国的统治。</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>毒蝎部落</t>
   </si>
   <si>
-    <t>Dakn</t>
-  </si>
-  <si>
     <t>毒蝎曾经与雄鹰是联盟，毒蝎领袖长螯是个强大的刺客，就是他亲手手刃了旧王，但是雄鹰在攻打下原本许诺给毒蝎的红石城之后出尔反尔，将它据为己有，导致两个部落的联盟破裂。长鳌一气之下卧床不起，毒蝎部落由他的妹妹阿曼莎接管。阿曼莎的手段不比常人，正是在她的带领下，毒蝎成功占领了风哭岩地区。</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>蛮牛部落</t>
   </si>
   <si>
-    <t>Thur</t>
-  </si>
-  <si>
     <t>蛮牛是一群土生土长的黑崖蛮族，那里布满了沼泽和毒虫野兽，有许许多多的山贼强盗，蛮牛的首领汗卢达曾经就是一个绿林人物。在日蚀战争之前，汗卢达便意识到弱小就会灭亡，于是他带领着蛮牛部落一步步前进，如今终于让蛮牛部落在大漠有了一席之地。</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>雪山山民</t>
   </si>
   <si>
-    <t>Mountainfolk</t>
-  </si>
-  <si>
     <t>日蚀战争后许多雪山老实的住民因为饥饿贫寒，拿起了武器做起了强盗。他们不畏惧寒冷并且熟悉地形，善于伏击路过的商队和冒险者。</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>光熠教会</t>
   </si>
   <si>
-    <t>Church of Radiance</t>
-  </si>
-  <si>
     <t>在双月山谷的一批邪恶的使女团体,没人知道他们背后是谁在指示，他们崇拜火魔，并且在逐渐渗透平民们。</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>沙漠兄弟会</t>
   </si>
   <si>
-    <t>Desert Brotherhood</t>
-  </si>
-  <si>
     <t>出没于大沙漠和戈壁地区的强盗团体，杀人越货为生。但是如果佣金充足，他们愿意为沙漠部落的首领而战。</t>
   </si>
   <si>
@@ -163,18 +145,12 @@
     <t>野火组织</t>
   </si>
   <si>
-    <t>Wildfire Clique</t>
-  </si>
-  <si>
     <t>活跃于黑崖的雇佣兵无赖。据说他们曾经为黑崖强大的强盗头领——野火效力，如今在野火死后，开始袭击曾经的雇主——商人和冒险家们，自己动手，丰衣足食嘛。</t>
   </si>
   <si>
     <t>白蔷薇学会</t>
   </si>
   <si>
-    <t>White Rose Society</t>
-  </si>
-  <si>
     <t>白蔷薇学会是大漠中的一个医疗巫师组织。他们接纳有巫术天赋的人前来学习医疗巫术，但是学会中的每一个人都会被烙下白蔷薇的法印，法印监视着他们的每一次医疗行为，白蔷薇不允许不受他们控制的医疗巫师存在于这片战争之地。白蔷薇学会也用巫术和白蔷薇合成特制的秘药卖给各大部落，用于急救一些受伤的士兵。</t>
   </si>
   <si>
@@ -187,40 +163,64 @@
     <t>在沙扎尔边境沙漠里的一支小部落，首领纳米西是一个残暴且贪婪的人，为了寻找美舍卢花不择手段。</t>
   </si>
   <si>
-    <t>Los Akhal siempre fueron la tribu más poderosa, excepto por los Nasir. Con base en las tierras de la pradera del sur, los Akhal apoyaron a la Ciudad de Jamal durante el antiguo imperio antes de declarar su propio feudo. Gobiernan el desierto de Docana al este de la Ciudad de Jamal y prometen reclamarla, con la esperanza de revivir el antiguo imperio.</t>
-  </si>
-  <si>
-    <t>El líder Dakn, Hassan, era un poderoso Hashashin que anteriormente se alió con los Nasir. Sin embargo, después de que los Nasir incumplieron su promesa sobre la Fortaleza Redstone, la alianza se rompió. Hassan cayó enfermo y su hermana Rebiya asumió el control. Mostrando una habilidad natural para la estrategia y el combate, bajo el mando de Rebiya, los Dakn ahora mantienen exitosamente el área de Crying Rock.</t>
-  </si>
-  <si>
-    <t>Los Thur provienen de los Umbra Cliffs, una tierra pantanosa densa de criaturas venenosas y ladrones. El líder de los Thur, Ludo Khan, solía ser un bandido del bosque antes de la llegada del Sol Negro. Al darse cuenta de la amenaza existencial que representaba, tomó el control de la tribu y se adueñó de tierras en los páramos desérticos.</t>
-  </si>
-  <si>
-    <t>Los Dhib, hijos de las escasamente pobladas Montañas Zagros, son nómadas rara vez vistos. Estos cazadores ahora empuñan armas en defensa de sus tierras natales, mientras su líder Ruha los guía hacia la guerra.</t>
-  </si>
-  <si>
-    <t>Los Nasir, los más fuertes de todas las tribus y principales beneficiarios de la Batalla del Sol Negro. Los Nasir controlan toda el área entre el Valle de Twinluna y la Ciudad de Jamal, incluida la Fortaleza Redstone. Su poder es inmensurable.</t>
-  </si>
-  <si>
-    <t>Los Ifrit son una de las tribus más antiguas de Salzaar y alguna vez coexistieron pacíficamente con la humanidad en esta tierra. Se alimentan de arcana, convirtiendo a los magos humanos en su objetivo principal de caza. Así era el statu quo aceptado hasta que una joven mujer humana se levantó para resistir su apetito. Ella, conocida como la Diosa del Río, utilizó un poderoso arcana para desterrarlos de esta dimensión. Mientras estaban desterrados, concentraron su arcana para mantener a su líder, el Maestro del Vacío Ifrit, hasta el día en que pudieran regresar a Salzaar. Ese día fue nada menos que la Batalla del Sol Negro, cuando apareció la Grieta permitiéndoles regresar en masa al reino de los humanos. Los Ifrit han vuelto a comenzar su cacería.</t>
-  </si>
-  <si>
-    <t>Después de la Batalla del Sol Negro, muchos habitantes honestos de las montañas empuñaron armas para combatir la pobreza y el hambre. Sin miedo al frío y familiarizados con el terreno, son sorprendentes en emboscar a aventureros y comerciantes que viajan por la zona.</t>
-  </si>
-  <si>
-    <t>Nadie sabe quién está detrás de este grupo de mujeres malvadas acechando en el Valle de Twinluna. Ellas adoran a los Ifrit y han estado reclutando gradualmente a civiles.</t>
-  </si>
-  <si>
-    <t>Bandidos deambulan por el desierto, matando a la vista por botín. Sin embargo, si la comisión es tentadora, podrían estar dispuestos a luchar en nombre de una facción establecida.</t>
-  </si>
-  <si>
-    <t>Un grupo de mercenarios rebeldes que se encuentran en los Umbra Cliffs. Algunos dicen que solían trabajar para el mítico Wildfire del pasado, pero desde su muerte ahora luchan contra aquellos que antes los empleaban: comerciantes y aventureros, con el fin de sobrevivir.</t>
-  </si>
-  <si>
-    <t>La Sociedad de la Rosa Blanca es un cuerpo de hechiceros clérigos. Aceptan a todos aquellos que deseen estudiar el arcana medicinal, pero marcan a todos sus miembros con la marca de una Rosa Blanca para supervisar cada una de sus interacciones médicas. La Sociedad de la Rosa Blanca solo permite que los miembros registrados practiquen dentro de zonas de guerra. Además, la Sociedad de la Rosa Blanca sintetiza y vende medicamentos y elixires especiales a las principales tribus para ayudar a sanar a sus tropas.</t>
-  </si>
-  <si>
-    <t>La tribu de Nemishi es una pequeña comunidad que habita en los límites de Salzaar. Su líder, Nemishi, es un hombre codicioso y obsesionado con adquirir el Epoch Reed, una planta mágica. Este tesoro vegetal es conocido por su inmenso poder y se rumorea que otorga habilidades sobrenaturales a quien lo posee. Guiado por su insaciable ambición, Nemishi dirige a su tribu en una búsqueda implacable del Epoch Reed, enfrentando peligros y desafíos en los rincones más remotos de Salzaar. Sin embargo, mientras persiguen su objetivo, la tribu de Nemishi se encuentra dividida entre aquellos que anhelan el poder y aquellos que temen las consecuencias de su líder y su búsqueda desenfrenada. El destino de la tribu pende en un delicado equilibrio mientras se enfrentan a decisiones que podrían llevarlos hacia la grandeza o a la destrucción.</t>
+    <t>Anoitecer</t>
+  </si>
+  <si>
+    <t>quinta</t>
+  </si>
+  <si>
+    <t>povo da montanha</t>
+  </si>
+  <si>
+    <t>Igreja da Radiância</t>
+  </si>
+  <si>
+    <t>Irmandade do Deserto</t>
+  </si>
+  <si>
+    <t>Clique do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Sociedade Rosa Branca</t>
+  </si>
+  <si>
+    <t>Sultão</t>
+  </si>
+  <si>
+    <t>Os Akhal sempre foram a tribo mais poderosa, exceto os Nasir. Baseados nas terras das pradarias do sul, os Akhal apoiaram a cidade de Jamal durante o antigo império antes de declararem seu próprio feudo. Eles governam o deserto de Docana, a leste da cidade de Jamal, e prometem recuperá-lo, na esperança de reviver o antigo império.</t>
+  </si>
+  <si>
+    <t>líder Dakn, Hassan, era um poderoso Hashashin que anteriormente se aliou aos Nasir. No entanto, depois que os Nasir renegaram sua promessa em relação à Fortaleza Redstone, a aliança ruiu. Hassan adoeceu e sua irmã Rebiya assumiu. Mostrando uma habilidade natural para estratégia e combate, sob o comando de Rebiya, os Dakn agora controlam com sucesso a área de Crying Rock.</t>
+  </si>
+  <si>
+    <t>Os Thur vêm dos Penhascos Umbra, uma terra pantanosa repleta de criaturas venenosas e ladras. O líder dos Thur, Ludo Khan, era um bandido da floresta antes da chegada do Sol Negro. Percebendo a ameaça existencial que representava, ele assumiu o controle da tribo e confiscou terras nos desertos.</t>
+  </si>
+  <si>
+    <t>Os Dhib, filhos das escassamente povoadas montanhas Zagros, raramente são vistos como nômades. Esses caçadores agora pegam em armas em defesa de suas terras natais, enquanto seu líder Ruha os guia para a guerra.</t>
+  </si>
+  <si>
+    <t>Os Nasir, os mais fortes de todas as tribos e os principais beneficiários da Batalha do Sol Negro. Os Nasir controlam toda a área entre o Vale Twinluna e Jamal City, incluindo a Fortaleza Redstone. Seu poder é imensurável.</t>
+  </si>
+  <si>
+    <t>Os Ifrit são uma das tribos mais antigas de Salzaar e já coexistiram pacificamente com a humanidade nesta terra. Eles se alimentam de arcanos, fazendo dos magos humanos seu principal alvo de caça. Esse era o status quo aceito até que uma jovem humana resistiu ao seu apetite. Ela, conhecida como a Deusa do Rio, usou um arcano poderoso para bani-los desta dimensão. Enquanto foram banidos, eles concentraram seus arcanos para sustentar seu líder, o Mestre do Vazio Ifrit, até o dia em que pudessem retornar a Salzaar. Esse dia não foi outro senão a Batalha do Sol Negro, quando a Fenda apareceu permitindo-lhes retornar em massa ao reino humano. Os Ifrit recomeçaram a caçada.</t>
+  </si>
+  <si>
+    <t>Após a Batalha do Sol Negro, muitos montanheses honestos pegaram em armas para combater a pobreza e a fome. Sem medo do frio e familiarizados com o terreno, eles são incríveis em emboscar aventureiros e mercadores que viajam pela região.</t>
+  </si>
+  <si>
+    <t>Ninguém sabe quem está por trás deste grupo de mulheres malvadas à espreita no Vale Twinluna. Eles adoram o Ifrit e têm gradualmente recrutado civis.</t>
+  </si>
+  <si>
+    <t>Bandidos vagam pelo deserto, matando à primeira vista para saquear. Contudo, se a comissão for tentadora, eles poderão estar dispostos a lutar em nome de uma facção estabelecida.</t>
+  </si>
+  <si>
+    <t>Um grupo de mercenários rebeldes encontrados nos Penhascos Umbra. Alguns dizem que costumavam trabalhar para o mítico Wildfire do passado, mas desde a sua morte eles agora lutam contra aqueles que antes os empregavam: comerciantes e aventureiros, para sobreviver.</t>
+  </si>
+  <si>
+    <t>Sociedade Rosa Branca é um corpo de feiticeiros clérigos. Eles aceitam todos aqueles que desejam estudar os arcanos medicinais, mas marcam todos os seus membros com a marca de uma Rosa Branca para monitorar todas as suas interações médicas. A White Rose Society só permite que membros registrados pratiquem em zonas de guerra. Além disso, a Sociedade Rosa Branca sintetiza e vende medicamentos e elixires especiais para tribos importantes para ajudar a curar suas tropas.</t>
+  </si>
+  <si>
+    <t>tribo Nemishi é uma pequena comunidade que vive nas fronteiras de Salzaar. Seu líder, Nemishi, é um homem ganancioso obcecado em adquirir a Epoch Reed, uma planta mágica. Este tesouro vegetal é conhecido por seu imenso poder e há rumores de que concede habilidades sobrenaturais ao seu possuidor. Guiado por sua ambição insaciável, Nemishi lidera sua tribo em uma busca incansável pela Época Reed, enfrentando perigos e desafios nos cantos mais remotos de Salzaar. No entanto, à medida que perseguem o seu objetivo, a tribo de Nemishi vê-se dividida entre aqueles que anseiam pelo poder e aqueles que temem as consequências do seu líder e da sua busca desenfreada. O destino da tribo está em um equilíbrio delicado enquanto eles enfrentam decisões que podem levá-los à grandeza ou à destruição.</t>
   </si>
 </sst>
 </file>
@@ -334,19 +334,19 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,7 +360,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="5" builtinId="27"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -711,11 +711,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
       <c r="A1" s="3" t="s">
@@ -754,10 +757,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>55</v>
@@ -765,22 +768,22 @@
     </row>
     <row r="3" spans="1:7" ht="315">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>56</v>
@@ -788,22 +791,22 @@
     </row>
     <row r="4" spans="1:7" ht="258.75">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>57</v>
@@ -811,22 +814,22 @@
     </row>
     <row r="5" spans="1:7" ht="157.5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
@@ -834,22 +837,22 @@
     </row>
     <row r="6" spans="1:7" ht="146.25">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>59</v>
@@ -857,22 +860,22 @@
     </row>
     <row r="7" spans="1:7" ht="409.5">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>60</v>
@@ -880,22 +883,22 @@
     </row>
     <row r="8" spans="1:7" ht="135">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>61</v>
@@ -903,22 +906,22 @@
     </row>
     <row r="9" spans="1:7" ht="112.5">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>62</v>
@@ -926,22 +929,22 @@
     </row>
     <row r="10" spans="1:7" ht="112.5">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>63</v>
@@ -949,22 +952,22 @@
     </row>
     <row r="11" spans="1:7" ht="168.75">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>64</v>
@@ -972,22 +975,22 @@
     </row>
     <row r="12" spans="1:7" ht="326.25">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>65</v>
@@ -995,22 +998,22 @@
     </row>
     <row r="13" spans="1:7" ht="101.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>66</v>
